--- a/docs/p03/IC Diet Choice.xlsx
+++ b/docs/p03/IC Diet Choice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawilson1999/Library/Mobile Documents/com~apple~CloudDocs/Psychology MA/Second Year (2022-2023)/Thesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawilson1999/Desktop/Data Science Spring 2023/Portfolio/p03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E885B95-E1F7-EC4C-BB82-280D393ED921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9A502B-00C2-664D-AA85-8294576DE50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{CAAA04D1-08D5-5C45-8FA3-FCC17EC5C807}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" activeTab="9" xr2:uid="{CAAA04D1-08D5-5C45-8FA3-FCC17EC5C807}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 1 (3-27)" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,17 @@
     <sheet name="Day 5 (3-31)" sheetId="5" r:id="rId5"/>
     <sheet name="Day 6 (4-3)" sheetId="6" r:id="rId6"/>
     <sheet name="Day 7 (4-4)" sheetId="7" r:id="rId7"/>
+    <sheet name="Averages" sheetId="8" r:id="rId8"/>
+    <sheet name="avg_kcal" sheetId="9" r:id="rId9"/>
+    <sheet name="d1 modified" sheetId="11" r:id="rId10"/>
+    <sheet name="d2 mod" sheetId="12" r:id="rId11"/>
+    <sheet name="d3 mod" sheetId="13" r:id="rId12"/>
+    <sheet name="d4 mod" sheetId="14" r:id="rId13"/>
+    <sheet name="d5 mod" sheetId="15" r:id="rId14"/>
+    <sheet name="d6 mod" sheetId="16" r:id="rId15"/>
+    <sheet name="d7 mod" sheetId="17" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="18">
   <si>
     <t>Water</t>
   </si>
@@ -85,12 +94,24 @@
   <si>
     <t>Rat</t>
   </si>
+  <si>
+    <t>Grams</t>
+  </si>
+  <si>
+    <t>Kcals</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -98,13 +119,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -119,9 +159,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,7 +486,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -780,6 +827,2701 @@
       </c>
       <c r="H13">
         <v>0.31000000000000227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59AFE6F-9B2B-FF4E-8F40-AC7EAE150E3A}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D1" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="E1" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F1" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="G1" s="6">
+        <v>1</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>3.87</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1.26</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.68</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1.34</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1.38</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1.07</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2.63</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1.19</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1.08</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="F8" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1.89</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1.01</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1.03</v>
+      </c>
+      <c r="G10" s="5">
+        <v>2.27</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1.58</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="F11" s="5">
+        <v>3.45</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1.28</v>
+      </c>
+      <c r="H11" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="F12" s="5">
+        <v>6.83</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1.03</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1.42</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1.08</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.39583332999999998</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.65416666999999995</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.34166667000000001</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2.23</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1.135</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.43916666999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1FD673-6AEB-FE44-801F-DC92CF2AD7BF}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.51000000000001933</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>4.0000000000020464E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.38999999999998636</v>
+      </c>
+      <c r="F2">
+        <v>0.75999999999999091</v>
+      </c>
+      <c r="G2">
+        <v>0.34999999999999432</v>
+      </c>
+      <c r="H2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3.0300000000000011</v>
+      </c>
+      <c r="C3">
+        <v>0.62999999999999545</v>
+      </c>
+      <c r="D3">
+        <v>0.13999999999998636</v>
+      </c>
+      <c r="E3">
+        <v>0.67000000000001592</v>
+      </c>
+      <c r="F3">
+        <v>0.61000000000001364</v>
+      </c>
+      <c r="G3">
+        <v>0.93999999999999773</v>
+      </c>
+      <c r="H3">
+        <v>0.28000000000000114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3.9999999999992042E-2</v>
+      </c>
+      <c r="C4">
+        <v>1.3299999999999841</v>
+      </c>
+      <c r="D4">
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="F4">
+        <v>1.0199999999999818</v>
+      </c>
+      <c r="G4">
+        <v>1.8799999999999955</v>
+      </c>
+      <c r="H4">
+        <v>0.29999999999999716</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2.25</v>
+      </c>
+      <c r="C5">
+        <v>0.44999999999998863</v>
+      </c>
+      <c r="D5">
+        <v>1.0600000000000023</v>
+      </c>
+      <c r="E5">
+        <v>0.56999999999999318</v>
+      </c>
+      <c r="F5">
+        <v>1.0600000000000023</v>
+      </c>
+      <c r="G5">
+        <v>1.6500000000000057</v>
+      </c>
+      <c r="H5">
+        <v>0.23999999999999488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.13999999999998636</v>
+      </c>
+      <c r="C6">
+        <v>6.0000000000002274E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="E6">
+        <v>0.47000000000002728</v>
+      </c>
+      <c r="F6">
+        <v>1.5399999999999636</v>
+      </c>
+      <c r="G6">
+        <v>1.75</v>
+      </c>
+      <c r="H6">
+        <v>0.31000000000000227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3.9999999999992042E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.32999999999998408</v>
+      </c>
+      <c r="D7">
+        <v>0.63999999999998636</v>
+      </c>
+      <c r="E7">
+        <v>0.41000000000002501</v>
+      </c>
+      <c r="F7">
+        <v>1.6399999999999864</v>
+      </c>
+      <c r="G7">
+        <v>2.5500000000000114</v>
+      </c>
+      <c r="H7">
+        <v>1.9999999999996021E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.62999999999999545</v>
+      </c>
+      <c r="C8">
+        <v>1.6400000000000148</v>
+      </c>
+      <c r="D8">
+        <v>5.0000000000011369E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.72000000000002728</v>
+      </c>
+      <c r="F8">
+        <v>1.8600000000000136</v>
+      </c>
+      <c r="G8">
+        <v>1.25</v>
+      </c>
+      <c r="H8">
+        <v>0.18000000000000682</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2.2900000000000205</v>
+      </c>
+      <c r="C9">
+        <v>0.46000000000000796</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="F9">
+        <v>2.7200000000000273</v>
+      </c>
+      <c r="G9">
+        <v>0.57999999999998408</v>
+      </c>
+      <c r="H9">
+        <v>1.0999999999999943</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1.3499999999999943</v>
+      </c>
+      <c r="C10">
+        <v>0.68000000000000682</v>
+      </c>
+      <c r="D10">
+        <v>1.5800000000000125</v>
+      </c>
+      <c r="E10">
+        <v>0.33999999999997499</v>
+      </c>
+      <c r="F10">
+        <v>2.1899999999999977</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0.34000000000000341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.10999999999998522</v>
+      </c>
+      <c r="C11">
+        <v>1.9300000000000068</v>
+      </c>
+      <c r="D11">
+        <v>1.7900000000000205</v>
+      </c>
+      <c r="E11">
+        <v>2.9200000000000159</v>
+      </c>
+      <c r="F11">
+        <v>3.5299999999999727</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.39000000000000057</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.71999999999999886</v>
+      </c>
+      <c r="C12">
+        <v>0.31000000000000227</v>
+      </c>
+      <c r="D12">
+        <v>3.9999999999992042E-2</v>
+      </c>
+      <c r="E12">
+        <v>7.9999999999984084E-2</v>
+      </c>
+      <c r="F12">
+        <v>8.1000000000000227</v>
+      </c>
+      <c r="G12">
+        <v>6.9999999999993179E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.85999999999999943</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1.0900000000000034</v>
+      </c>
+      <c r="D13">
+        <v>1.1799999999999784</v>
+      </c>
+      <c r="E13">
+        <v>1.8799999999999955</v>
+      </c>
+      <c r="F13">
+        <v>2.1700000000000159</v>
+      </c>
+      <c r="G13">
+        <v>0.87000000000000455</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <f>AVERAGE(B2:B13)</f>
+        <v>0.92583333333333206</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:H14" si="0">AVERAGE(C2:C13)</f>
+        <v>0.90916666666666635</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.56750000000000023</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.72416666666667118</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>2.2666666666666657</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>1.0741666666666656</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0.355833333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B313B493-19DB-D642-B674-D9F0E31C6C5E}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.37000000000000455</v>
+      </c>
+      <c r="C2">
+        <v>0.90999999999999659</v>
+      </c>
+      <c r="D2">
+        <v>0.11999999999997613</v>
+      </c>
+      <c r="E2">
+        <v>0.55000000000001137</v>
+      </c>
+      <c r="F2">
+        <v>1.5400000000000205</v>
+      </c>
+      <c r="G2">
+        <v>0.3200000000000216</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2.0699999999999932</v>
+      </c>
+      <c r="C3">
+        <v>0.68999999999999773</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.21000000000003638</v>
+      </c>
+      <c r="F3">
+        <v>0.87999999999999545</v>
+      </c>
+      <c r="G3">
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="H3">
+        <v>0.13000000000000966</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="C4">
+        <v>3.1700000000000159</v>
+      </c>
+      <c r="D4">
+        <v>0.10999999999998522</v>
+      </c>
+      <c r="E4">
+        <v>4.0000000000020464E-2</v>
+      </c>
+      <c r="F4">
+        <v>1.5199999999999818</v>
+      </c>
+      <c r="G4">
+        <v>0.45000000000001705</v>
+      </c>
+      <c r="H4">
+        <v>0.28999999999999204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.37999999999999545</v>
+      </c>
+      <c r="C5">
+        <v>0.36000000000001364</v>
+      </c>
+      <c r="D5">
+        <v>0.3200000000000216</v>
+      </c>
+      <c r="E5">
+        <v>0.81999999999999318</v>
+      </c>
+      <c r="F5">
+        <v>0.94999999999998863</v>
+      </c>
+      <c r="G5">
+        <v>1.5499999999999829</v>
+      </c>
+      <c r="H5">
+        <v>0.43000000000000682</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>9.0000000000003411E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.19999999999998863</v>
+      </c>
+      <c r="D6">
+        <v>0.38999999999998636</v>
+      </c>
+      <c r="E6">
+        <v>0.34000000000003183</v>
+      </c>
+      <c r="F6">
+        <v>0.39999999999997726</v>
+      </c>
+      <c r="G6">
+        <v>0.77000000000001023</v>
+      </c>
+      <c r="H6">
+        <v>0.20000000000000284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>8.9999999999974989E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.78999999999999204</v>
+      </c>
+      <c r="D7">
+        <v>0.61000000000001364</v>
+      </c>
+      <c r="E7">
+        <v>0.20999999999997954</v>
+      </c>
+      <c r="F7">
+        <v>1.5500000000000114</v>
+      </c>
+      <c r="G7">
+        <v>0.36000000000001364</v>
+      </c>
+      <c r="H7">
+        <v>9.9999999999909051E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.45999999999997954</v>
+      </c>
+      <c r="C8">
+        <v>1.3299999999999841</v>
+      </c>
+      <c r="D8">
+        <v>0.87000000000000455</v>
+      </c>
+      <c r="E8">
+        <v>0.56000000000000227</v>
+      </c>
+      <c r="F8">
+        <v>1.1999999999999886</v>
+      </c>
+      <c r="G8">
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="H8">
+        <v>0.14999999999999147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1.2600000000000193</v>
+      </c>
+      <c r="C9">
+        <v>1.1099999999999852</v>
+      </c>
+      <c r="D9">
+        <v>1.999999999998181E-2</v>
+      </c>
+      <c r="E9">
+        <v>2.9999999999972715E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.5199999999999818</v>
+      </c>
+      <c r="G9">
+        <v>2.0000000000010232E-2</v>
+      </c>
+      <c r="H9">
+        <v>0.48999999999999488</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1.1699999999999875</v>
+      </c>
+      <c r="C10">
+        <v>1.1299999999999955</v>
+      </c>
+      <c r="D10">
+        <v>1.3599999999999852</v>
+      </c>
+      <c r="E10">
+        <v>1.8500000000000227</v>
+      </c>
+      <c r="F10">
+        <v>1.0299999999999727</v>
+      </c>
+      <c r="G10">
+        <v>0.43000000000000682</v>
+      </c>
+      <c r="H10">
+        <v>0.21999999999999886</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.20000000000001705</v>
+      </c>
+      <c r="C11">
+        <v>7.5500000000000114</v>
+      </c>
+      <c r="D11">
+        <v>0.37999999999999545</v>
+      </c>
+      <c r="E11">
+        <v>0.91000000000002501</v>
+      </c>
+      <c r="F11">
+        <v>3.5799999999999841</v>
+      </c>
+      <c r="G11">
+        <v>0.19999999999998863</v>
+      </c>
+      <c r="H11">
+        <v>0.21999999999999886</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1.6100000000000136</v>
+      </c>
+      <c r="C12">
+        <v>0.99000000000000909</v>
+      </c>
+      <c r="D12">
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.30000000000001137</v>
+      </c>
+      <c r="F12">
+        <v>4.2699999999999818</v>
+      </c>
+      <c r="G12">
+        <v>1.999999999998181E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.47999999999998977</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1.1800000000000068</v>
+      </c>
+      <c r="D13">
+        <v>0.84000000000000341</v>
+      </c>
+      <c r="E13">
+        <v>1.339999999999975</v>
+      </c>
+      <c r="F13">
+        <v>1.0500000000000114</v>
+      </c>
+      <c r="G13">
+        <v>0.82999999999998408</v>
+      </c>
+      <c r="H13">
+        <v>6.0000000000002274E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <f>AVERAGE(B2:B13)</f>
+        <v>0.64249999999999829</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:H14" si="0">AVERAGE(C2:C13)</f>
+        <v>1.6174999999999997</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.42083333333332956</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.59666666666667345</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1.6241666666666579</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0.46500000000000102</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0.22333333333333152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD6F68A-7FB1-D542-A489-13EDC04EE5DC}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.88000000000002387</v>
+      </c>
+      <c r="C2">
+        <v>2.0600000000000023</v>
+      </c>
+      <c r="D2">
+        <v>1.999999999998181E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.57000000000005002</v>
+      </c>
+      <c r="F2">
+        <v>1.25</v>
+      </c>
+      <c r="G2">
+        <v>0.56000000000000227</v>
+      </c>
+      <c r="H2">
+        <v>0.20999999999999375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3.1999999999999886</v>
+      </c>
+      <c r="C3">
+        <v>0.25999999999999091</v>
+      </c>
+      <c r="D3">
+        <v>8.0000000000012506E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.27999999999997272</v>
+      </c>
+      <c r="F3">
+        <v>0.33999999999997499</v>
+      </c>
+      <c r="G3">
+        <v>1.1999999999999886</v>
+      </c>
+      <c r="H3">
+        <v>0.34000000000000341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>3.4399999999999977</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.31000000000000227</v>
+      </c>
+      <c r="F4">
+        <v>0.95999999999997954</v>
+      </c>
+      <c r="G4">
+        <v>0.34000000000000341</v>
+      </c>
+      <c r="H4">
+        <v>0.31000000000000227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1.4799999999999898</v>
+      </c>
+      <c r="C5">
+        <v>0.64000000000001478</v>
+      </c>
+      <c r="D5">
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="E5">
+        <v>0.29000000000002046</v>
+      </c>
+      <c r="F5">
+        <v>1.1700000000000159</v>
+      </c>
+      <c r="G5">
+        <v>2.1399999999999864</v>
+      </c>
+      <c r="H5">
+        <v>0.3399999999999892</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1.999999999998181E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.46000000000000796</v>
+      </c>
+      <c r="D6">
+        <v>0.71000000000000796</v>
+      </c>
+      <c r="E6">
+        <v>0.64999999999997726</v>
+      </c>
+      <c r="F6">
+        <v>0.87999999999999545</v>
+      </c>
+      <c r="G6">
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="H6">
+        <v>0.32999999999999829</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7.9999999999984084E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.63999999999998636</v>
+      </c>
+      <c r="D7">
+        <v>0.65000000000000568</v>
+      </c>
+      <c r="E7">
+        <v>0.64999999999997726</v>
+      </c>
+      <c r="F7">
+        <v>1.2599999999999909</v>
+      </c>
+      <c r="G7">
+        <v>2.8000000000000114</v>
+      </c>
+      <c r="H7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1.7199999999999989</v>
+      </c>
+      <c r="C8">
+        <v>2.3100000000000023</v>
+      </c>
+      <c r="D8">
+        <v>0.69000000000002615</v>
+      </c>
+      <c r="E8">
+        <v>0.17000000000001592</v>
+      </c>
+      <c r="F8">
+        <v>1.6700000000000159</v>
+      </c>
+      <c r="G8">
+        <v>0.43000000000000682</v>
+      </c>
+      <c r="H8">
+        <v>0.28000000000000114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2.0699999999999932</v>
+      </c>
+      <c r="C9">
+        <v>0.83000000000001251</v>
+      </c>
+      <c r="D9">
+        <v>1.0000000000019327E-2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1.9900000000000091</v>
+      </c>
+      <c r="G9">
+        <v>9.0000000000003411E-2</v>
+      </c>
+      <c r="H9">
+        <v>0.78999999999999204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1.8199999999999932</v>
+      </c>
+      <c r="C10">
+        <v>1.460000000000008</v>
+      </c>
+      <c r="D10">
+        <v>1.2600000000000477</v>
+      </c>
+      <c r="E10">
+        <v>0.36000000000001364</v>
+      </c>
+      <c r="F10">
+        <v>2.5099999999999909</v>
+      </c>
+      <c r="G10">
+        <v>1.3400000000000034</v>
+      </c>
+      <c r="H10">
+        <v>0.43999999999999773</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1.0000000000019327E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.94999999999998863</v>
+      </c>
+      <c r="D11">
+        <v>0.3200000000000216</v>
+      </c>
+      <c r="E11">
+        <v>3.0600000000000023</v>
+      </c>
+      <c r="F11">
+        <v>5.1500000000000341</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.4100000000000108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1.1599999999999966</v>
+      </c>
+      <c r="C12">
+        <v>0.93999999999999773</v>
+      </c>
+      <c r="D12">
+        <v>0.69999999999998863</v>
+      </c>
+      <c r="E12">
+        <v>0.16999999999995907</v>
+      </c>
+      <c r="F12">
+        <v>4.7200000000000273</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0.32999999999999829</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1.8599999999999852</v>
+      </c>
+      <c r="D13">
+        <v>1.7800000000000011</v>
+      </c>
+      <c r="E13">
+        <v>1.3199999999999932</v>
+      </c>
+      <c r="F13">
+        <v>1.3100000000000023</v>
+      </c>
+      <c r="G13">
+        <v>0.24000000000000909</v>
+      </c>
+      <c r="H13">
+        <v>0.57000000000000739</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <f>AVERAGE(B2:B13)</f>
+        <v>1.0366666666666642</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:H14" si="0">AVERAGE(C2:C13)</f>
+        <v>1.3208333333333329</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.51916666666667532</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.65249999999999864</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1.9341666666666697</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0.77000000000000079</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0.38333333333333286</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60CA61B-D058-FA48-8D0A-4FAEB6AB4875}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.74000000000000909</v>
+      </c>
+      <c r="C2">
+        <v>1.960000000000008</v>
+      </c>
+      <c r="D2">
+        <v>6.0000000000002274E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.37000000000000455</v>
+      </c>
+      <c r="F2">
+        <v>1.2299999999999613</v>
+      </c>
+      <c r="G2">
+        <v>1.7900000000000205</v>
+      </c>
+      <c r="H2">
+        <v>0.12000000000000455</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2.6799999999999784</v>
+      </c>
+      <c r="C3">
+        <v>0.31000000000000227</v>
+      </c>
+      <c r="D3">
+        <v>1.999999999998181E-2</v>
+      </c>
+      <c r="E3">
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="F3">
+        <v>0.31000000000000227</v>
+      </c>
+      <c r="G3">
+        <v>1.5800000000000125</v>
+      </c>
+      <c r="H3">
+        <v>0.37999999999999545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="C4">
+        <v>4.1500000000000057</v>
+      </c>
+      <c r="D4">
+        <v>8.0000000000040927E-2</v>
+      </c>
+      <c r="E4">
+        <v>2.9999999999972715E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.73000000000001819</v>
+      </c>
+      <c r="G4">
+        <v>0.78999999999999204</v>
+      </c>
+      <c r="H4">
+        <v>0.31000000000000227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2.25</v>
+      </c>
+      <c r="C5">
+        <v>0.6799999999999784</v>
+      </c>
+      <c r="D5">
+        <v>1.0100000000000193</v>
+      </c>
+      <c r="E5">
+        <v>0.77999999999997272</v>
+      </c>
+      <c r="F5">
+        <v>1.8300000000000409</v>
+      </c>
+      <c r="G5">
+        <v>0.22999999999998977</v>
+      </c>
+      <c r="H5">
+        <v>0.39999999999999147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="C6">
+        <v>2.2400000000000091</v>
+      </c>
+      <c r="D6">
+        <v>1.4599999999999795</v>
+      </c>
+      <c r="E6">
+        <v>0.62000000000000455</v>
+      </c>
+      <c r="F6">
+        <v>1.8799999999999955</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0.21999999999999886</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6.9999999999993179E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.61000000000001364</v>
+      </c>
+      <c r="D7">
+        <v>0.83000000000001251</v>
+      </c>
+      <c r="E7">
+        <v>0.48000000000001819</v>
+      </c>
+      <c r="F7">
+        <v>1.0999999999999659</v>
+      </c>
+      <c r="G7">
+        <v>1.8499999999999943</v>
+      </c>
+      <c r="H7">
+        <v>0.42000000000000171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.32999999999998408</v>
+      </c>
+      <c r="C8">
+        <v>2.1299999999999955</v>
+      </c>
+      <c r="D8">
+        <v>0.64000000000001478</v>
+      </c>
+      <c r="E8">
+        <v>0.97000000000002728</v>
+      </c>
+      <c r="F8">
+        <v>2.5099999999999909</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0.15999999999999659</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1.3300000000000125</v>
+      </c>
+      <c r="C9">
+        <v>3.3400000000000034</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>2.0000000000038654E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.71999999999997044</v>
+      </c>
+      <c r="G9">
+        <v>0.24000000000000909</v>
+      </c>
+      <c r="H9">
+        <v>0.45999999999999375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.24000000000000909</v>
+      </c>
+      <c r="C10">
+        <v>2.9299999999999784</v>
+      </c>
+      <c r="D10">
+        <v>1.289999999999992</v>
+      </c>
+      <c r="E10">
+        <v>0.61000000000001364</v>
+      </c>
+      <c r="F10">
+        <v>0.94999999999998863</v>
+      </c>
+      <c r="G10">
+        <v>9.0000000000003411E-2</v>
+      </c>
+      <c r="H10">
+        <v>0.22999999999998977</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="C11">
+        <v>2.1200000000000045</v>
+      </c>
+      <c r="D11">
+        <v>8.0000000000012506E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.6400000000000432</v>
+      </c>
+      <c r="F11">
+        <v>2.5999999999999659</v>
+      </c>
+      <c r="G11">
+        <v>0.35999999999998522</v>
+      </c>
+      <c r="H11">
+        <v>0.30000000000001137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2.3000000000000114</v>
+      </c>
+      <c r="C12">
+        <v>1.8300000000000125</v>
+      </c>
+      <c r="D12">
+        <v>0.31999999999999318</v>
+      </c>
+      <c r="E12">
+        <v>1.0000000000047748E-2</v>
+      </c>
+      <c r="F12">
+        <v>3.0399999999999636</v>
+      </c>
+      <c r="G12">
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.78999999999999204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6.0000000000002274E-2</v>
+      </c>
+      <c r="C13">
+        <v>1.3799999999999955</v>
+      </c>
+      <c r="D13">
+        <v>0.67000000000001592</v>
+      </c>
+      <c r="E13">
+        <v>0.62000000000000455</v>
+      </c>
+      <c r="F13">
+        <v>0.70999999999997954</v>
+      </c>
+      <c r="G13">
+        <v>0.55000000000001137</v>
+      </c>
+      <c r="H13">
+        <v>0.56000000000000227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <f>AVERAGE(B2:B13)</f>
+        <v>0.84833333333333394</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:H14" si="0">AVERAGE(C2:C13)</f>
+        <v>1.9733333333333338</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.53833333333333877</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.43000000000001154</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1.4674999999999869</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0.62583333333333491</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0.36249999999999832</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5361F83-30B1-E148-AC7C-758577F60544}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2.0200000000000102</v>
+      </c>
+      <c r="C2">
+        <v>1.3400000000000034</v>
+      </c>
+      <c r="D2">
+        <v>0.25</v>
+      </c>
+      <c r="E2">
+        <v>0.41000000000002501</v>
+      </c>
+      <c r="F2">
+        <v>1.6899999999999977</v>
+      </c>
+      <c r="G2">
+        <v>5.0000000000011369E-2</v>
+      </c>
+      <c r="H2">
+        <v>1.0000000000005116E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2.9899999999999807</v>
+      </c>
+      <c r="C3">
+        <v>0.27000000000001023</v>
+      </c>
+      <c r="D3">
+        <v>1.999999999998181E-2</v>
+      </c>
+      <c r="E3">
+        <v>5.0000000000011369E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.87000000000000455</v>
+      </c>
+      <c r="G3">
+        <v>0.65000000000000568</v>
+      </c>
+      <c r="H3">
+        <v>0.31000000000000227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7.9999999999984084E-2</v>
+      </c>
+      <c r="C4">
+        <v>6.5900000000000034</v>
+      </c>
+      <c r="D4">
+        <v>0.44999999999998863</v>
+      </c>
+      <c r="E4">
+        <v>6.0000000000002274E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.74000000000000909</v>
+      </c>
+      <c r="G4">
+        <v>0.40999999999999659</v>
+      </c>
+      <c r="H4">
+        <v>0.3399999999999892</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1.8799999999999955</v>
+      </c>
+      <c r="C5">
+        <v>1.0300000000000011</v>
+      </c>
+      <c r="D5">
+        <v>0.75</v>
+      </c>
+      <c r="E5">
+        <v>0.62999999999999545</v>
+      </c>
+      <c r="F5">
+        <v>2.4000000000000341</v>
+      </c>
+      <c r="G5">
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="H5">
+        <v>1.6899999999999977</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>8.0000000000012506E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.84999999999999432</v>
+      </c>
+      <c r="D6">
+        <v>0.22999999999998977</v>
+      </c>
+      <c r="E6">
+        <v>0.34999999999996589</v>
+      </c>
+      <c r="F6">
+        <v>3.0099999999999909</v>
+      </c>
+      <c r="G6">
+        <v>0.47999999999998977</v>
+      </c>
+      <c r="H6">
+        <v>0.46999999999999886</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.14000000000001478</v>
+      </c>
+      <c r="C7">
+        <v>0.56999999999999318</v>
+      </c>
+      <c r="D7">
+        <v>1.2800000000000011</v>
+      </c>
+      <c r="E7">
+        <v>0.80000000000001137</v>
+      </c>
+      <c r="F7">
+        <v>1.3400000000000318</v>
+      </c>
+      <c r="G7">
+        <v>1.539999999999992</v>
+      </c>
+      <c r="H7">
+        <v>0.30999999999998806</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.58000000000001251</v>
+      </c>
+      <c r="C8">
+        <v>1.6100000000000136</v>
+      </c>
+      <c r="D8">
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="E8">
+        <v>0.48000000000001819</v>
+      </c>
+      <c r="F8">
+        <v>3.8199999999999932</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0.17000000000000171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.84999999999999432</v>
+      </c>
+      <c r="C9">
+        <v>2.0600000000000023</v>
+      </c>
+      <c r="D9">
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="E9">
+        <v>3.999999999996362E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.8199999999999932</v>
+      </c>
+      <c r="G9">
+        <v>3.9999999999992042E-2</v>
+      </c>
+      <c r="H9">
+        <v>0.47999999999998977</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="C10">
+        <v>5.6200000000000045</v>
+      </c>
+      <c r="D10">
+        <v>0.40000000000000568</v>
+      </c>
+      <c r="E10">
+        <v>0.36000000000001364</v>
+      </c>
+      <c r="F10">
+        <v>3.17999999999995</v>
+      </c>
+      <c r="G10">
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="H10">
+        <v>0.30000000000001137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1.0699999999999932</v>
+      </c>
+      <c r="C11">
+        <v>2.539999999999992</v>
+      </c>
+      <c r="D11">
+        <v>1.039999999999992</v>
+      </c>
+      <c r="E11">
+        <v>0.31999999999999318</v>
+      </c>
+      <c r="F11">
+        <v>1.6899999999999977</v>
+      </c>
+      <c r="G11">
+        <v>2.0000000000010232E-2</v>
+      </c>
+      <c r="H11">
+        <v>0.40000000000000568</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3.3199999999999932</v>
+      </c>
+      <c r="C12">
+        <v>1.3599999999999852</v>
+      </c>
+      <c r="D12">
+        <v>0.80000000000001137</v>
+      </c>
+      <c r="E12">
+        <v>3.0000000000029559E-2</v>
+      </c>
+      <c r="F12">
+        <v>3.5400000000000205</v>
+      </c>
+      <c r="G12">
+        <v>0.17000000000001592</v>
+      </c>
+      <c r="H12">
+        <v>0.53000000000000114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="C13">
+        <v>2.539999999999992</v>
+      </c>
+      <c r="D13">
+        <v>0.86999999999997613</v>
+      </c>
+      <c r="E13">
+        <v>0.77000000000003865</v>
+      </c>
+      <c r="F13">
+        <v>1.5799999999999841</v>
+      </c>
+      <c r="G13">
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <f>AVERAGE(B2:B13)</f>
+        <v>1.0933333333333313</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:H14" si="0">AVERAGE(C2:C13)</f>
+        <v>2.1983333333333328</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.5449999999999946</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.358333333333339</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>2.1400000000000006</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0.33500000000000085</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0.41749999999999926</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C315B86-6302-2C4F-A69F-C3ACA53AE70E}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.93999999999999773</v>
+      </c>
+      <c r="C2">
+        <v>1.9699999999999989</v>
+      </c>
+      <c r="D2">
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="E2">
+        <v>0.85000000000002274</v>
+      </c>
+      <c r="F2">
+        <v>2.1000000000000227</v>
+      </c>
+      <c r="G2">
+        <v>6.9999999999993179E-2</v>
+      </c>
+      <c r="H2">
+        <v>0.15000000000000568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3.6299999999999955</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>7.9999999999984084E-2</v>
+      </c>
+      <c r="E3">
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="F3">
+        <v>0.60000000000002274</v>
+      </c>
+      <c r="G3">
+        <v>0.75</v>
+      </c>
+      <c r="H3">
+        <v>0.37999999999999545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="C4">
+        <v>6.0300000000000011</v>
+      </c>
+      <c r="D4">
+        <v>0.37999999999999545</v>
+      </c>
+      <c r="E4">
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="F4">
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="G4">
+        <v>0.90000000000000568</v>
+      </c>
+      <c r="H4">
+        <v>1.0000000000005116E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2.1199999999999761</v>
+      </c>
+      <c r="C5">
+        <v>0.86000000000001364</v>
+      </c>
+      <c r="D5">
+        <v>0.28999999999999204</v>
+      </c>
+      <c r="E5">
+        <v>0.25999999999999091</v>
+      </c>
+      <c r="F5">
+        <v>2.6700000000000159</v>
+      </c>
+      <c r="G5">
+        <v>0.50999999999999091</v>
+      </c>
+      <c r="H5">
+        <v>0.26000000000000512</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="D6">
+        <v>0.71999999999999886</v>
+      </c>
+      <c r="E6">
+        <v>0.15999999999996817</v>
+      </c>
+      <c r="F6">
+        <v>2.2400000000000091</v>
+      </c>
+      <c r="G6">
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="H6">
+        <v>0.38000000000000966</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.15000000000000568</v>
+      </c>
+      <c r="C7">
+        <v>1.0900000000000034</v>
+      </c>
+      <c r="D7">
+        <v>1.4699999999999989</v>
+      </c>
+      <c r="E7">
+        <v>0.10000000000002274</v>
+      </c>
+      <c r="F7">
+        <v>1.2400000000000091</v>
+      </c>
+      <c r="G7">
+        <v>1.4099999999999966</v>
+      </c>
+      <c r="H7">
+        <v>0.32999999999999829</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.11000000000001364</v>
+      </c>
+      <c r="C8">
+        <v>2.8199999999999932</v>
+      </c>
+      <c r="D8">
+        <v>0.71000000000000796</v>
+      </c>
+      <c r="E8">
+        <v>0.51999999999998181</v>
+      </c>
+      <c r="F8">
+        <v>2.0699999999999932</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>6.9999999999993179E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.46000000000000796</v>
+      </c>
+      <c r="C9">
+        <v>2.3299999999999841</v>
+      </c>
+      <c r="D9">
+        <v>4.0000000000020464E-2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1.75</v>
+      </c>
+      <c r="G9">
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="H9">
+        <v>0.26000000000000512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7.9999999999984084E-2</v>
+      </c>
+      <c r="C10">
+        <v>5.8400000000000034</v>
+      </c>
+      <c r="D10">
+        <v>1.4499999999999886</v>
+      </c>
+      <c r="E10">
+        <v>0.55000000000001137</v>
+      </c>
+      <c r="F10">
+        <v>1.2900000000000205</v>
+      </c>
+      <c r="G10">
+        <v>3.9999999999992042E-2</v>
+      </c>
+      <c r="H10">
+        <v>0.3399999999999892</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="C11">
+        <v>3.0300000000000011</v>
+      </c>
+      <c r="D11">
+        <v>0.89999999999997726</v>
+      </c>
+      <c r="E11">
+        <v>0.12999999999999545</v>
+      </c>
+      <c r="F11">
+        <v>2.4399999999999977</v>
+      </c>
+      <c r="G11">
+        <v>0.28999999999999204</v>
+      </c>
+      <c r="H11">
+        <v>6.0000000000002274E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3.7900000000000205</v>
+      </c>
+      <c r="C12">
+        <v>1.1900000000000261</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0.29999999999995453</v>
+      </c>
+      <c r="F12">
+        <v>1.6999999999999886</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>4.0000000000020464E-2</v>
+      </c>
+      <c r="C13">
+        <v>1.4499999999999886</v>
+      </c>
+      <c r="D13">
+        <v>1.7800000000000011</v>
+      </c>
+      <c r="E13">
+        <v>0.49000000000000909</v>
+      </c>
+      <c r="F13">
+        <v>0.68000000000000682</v>
+      </c>
+      <c r="G13">
+        <v>0.68999999999999773</v>
+      </c>
+      <c r="H13" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <f>AVERAGE(B2:B13)</f>
+        <v>0.97000000000000119</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:H14" si="0">AVERAGE(C2:C13)</f>
+        <v>2.2333333333333343</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.65249999999999631</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.28166666666666157</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1.5808333333333404</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0.4066666666666639</v>
+      </c>
+      <c r="H14" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -792,7 +3534,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1077,7 +3819,7 @@
         <v>3.5299999999999727</v>
       </c>
       <c r="G11">
-        <v>-3.0000000000001137E-2</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0.39000000000000057</v>
@@ -1114,7 +3856,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-6.0000000000002274E-2</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>1.0900000000000034</v>
@@ -1145,7 +3887,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1213,7 +3955,7 @@
         <v>0.68999999999999773</v>
       </c>
       <c r="D3">
-        <v>-9.9999999999909051E-3</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0.21000000000003638</v>
@@ -1467,7 +4209,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-9.9999999999909051E-3</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>1.1800000000000068</v>
@@ -1498,7 +4240,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1586,13 +4328,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-1.0000000000019327E-2</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>3.4399999999999977</v>
       </c>
       <c r="D4">
-        <v>-0.93999999999999773</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0.31000000000000227</v>
@@ -1725,7 +4467,7 @@
         <v>1.0000000000019327E-2</v>
       </c>
       <c r="E9">
-        <v>-9.9999999999909051E-3</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>1.9900000000000091</v>
@@ -1820,7 +4562,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-0.18999999999999773</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>1.8599999999999852</v>
@@ -1851,7 +4593,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2006,7 +4748,7 @@
         <v>1.8799999999999955</v>
       </c>
       <c r="G6">
-        <v>-0.16000000000002501</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0.21999999999999886</v>
@@ -2058,7 +4800,7 @@
         <v>2.5099999999999909</v>
       </c>
       <c r="G8">
-        <v>-3.9999999999992042E-2</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0.15999999999999659</v>
@@ -2204,7 +4946,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2411,7 +5153,7 @@
         <v>3.8199999999999932</v>
       </c>
       <c r="G8">
-        <v>-9.9999999999909051E-3</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0.17000000000000171</v>
@@ -2556,8 +5298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A93C88-B099-3D48-A55C-37635FBB2EE7}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2764,7 +5506,7 @@
         <v>2.0699999999999932</v>
       </c>
       <c r="G8">
-        <v>-3.0000000000001137E-2</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>6.9999999999993179E-2</v>
@@ -2784,7 +5526,7 @@
         <v>4.0000000000020464E-2</v>
       </c>
       <c r="E9">
-        <v>-2.0000000000038654E-2</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>1.75</v>
@@ -2868,7 +5610,7 @@
         <v>1.6999999999999886</v>
       </c>
       <c r="G12">
-        <v>-8.0000000000012506E-2</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0.25</v>
@@ -2898,6 +5640,1246 @@
       </c>
       <c r="H13" t="e">
         <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FA45DA-71A3-4B48-B3F7-6F86CE2430EE}">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" zoomScale="166" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>AVERAGE('Day 1 (3-27)'!B2,  'Day 2 (3-28)'!B2,'Day 3 (3-29)'!B2, 'Day 4 (3-30)'!B2, 'Day 5 (3-31)'!B2, 'Day 6 (4-3)'!B2, 'Day 7 (4-4)'!B2)</f>
+        <v>0.85000000000001052</v>
+      </c>
+      <c r="C3">
+        <f>AVERAGE('Day 1 (3-27)'!C2,  'Day 2 (3-28)'!C2,'Day 3 (3-29)'!C2, 'Day 4 (3-30)'!C2, 'Day 5 (3-31)'!C2, 'Day 6 (4-3)'!C2, 'Day 7 (4-4)'!C2)</f>
+        <v>1.5457142857142847</v>
+      </c>
+      <c r="D3">
+        <f>AVERAGE('Day 1 (3-27)'!D2,  'Day 2 (3-28)'!D2,'Day 3 (3-29)'!D2, 'Day 4 (3-30)'!D2, 'Day 5 (3-31)'!D2, 'Day 6 (4-3)'!D2, 'Day 7 (4-4)'!D2)</f>
+        <v>0.17714285714285033</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE('Day 1 (3-27)'!E2,  'Day 2 (3-28)'!E2,'Day 3 (3-29)'!E2, 'Day 4 (3-30)'!E2, 'Day 5 (3-31)'!E2, 'Day 6 (4-3)'!E2, 'Day 7 (4-4)'!E2)</f>
+        <v>0.46000000000002012</v>
+      </c>
+      <c r="F3">
+        <f>AVERAGE('Day 1 (3-27)'!F2,  'Day 2 (3-28)'!F2,'Day 3 (3-29)'!F2, 'Day 4 (3-30)'!F2, 'Day 5 (3-31)'!F2, 'Day 6 (4-3)'!F2, 'Day 7 (4-4)'!F2)</f>
+        <v>1.519999999999998</v>
+      </c>
+      <c r="G3">
+        <f>AVERAGE('Day 1 (3-27)'!G2,  'Day 2 (3-28)'!G2,'Day 3 (3-29)'!G2, 'Day 4 (3-30)'!G2, 'Day 5 (3-31)'!G2, 'Day 6 (4-3)'!G2, 'Day 7 (4-4)'!G2)</f>
+        <v>0.51142857142857723</v>
+      </c>
+      <c r="H3">
+        <f>AVERAGE('Day 1 (3-27)'!H2,  'Day 2 (3-28)'!H2,'Day 3 (3-29)'!H2, 'Day 4 (3-30)'!H2, 'Day 5 (3-31)'!H2, 'Day 6 (4-3)'!H2, 'Day 7 (4-4)'!H2)</f>
+        <v>0.11428571428571591</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f>AVERAGE('Day 1 (3-27)'!B3,  'Day 2 (3-28)'!B3,'Day 3 (3-29)'!B3, 'Day 4 (3-30)'!B3, 'Day 5 (3-31)'!B3, 'Day 6 (4-3)'!B3, 'Day 7 (4-4)'!B3)</f>
+        <v>3.0671428571428447</v>
+      </c>
+      <c r="C4">
+        <f>AVERAGE('Day 1 (3-27)'!C3,  'Day 2 (3-28)'!C3,'Day 3 (3-29)'!C3, 'Day 4 (3-30)'!C3, 'Day 5 (3-31)'!C3, 'Day 6 (4-3)'!C3, 'Day 7 (4-4)'!C3)</f>
+        <v>0.38999999999999851</v>
+      </c>
+      <c r="D4">
+        <f>AVERAGE('Day 1 (3-27)'!D3,  'Day 2 (3-28)'!D3,'Day 3 (3-29)'!D3, 'Day 4 (3-30)'!D3, 'Day 5 (3-31)'!D3, 'Day 6 (4-3)'!D3, 'Day 7 (4-4)'!D3)</f>
+        <v>0.12714285714285115</v>
+      </c>
+      <c r="E4">
+        <f>AVERAGE('Day 1 (3-27)'!E3,  'Day 2 (3-28)'!E3,'Day 3 (3-29)'!E3, 'Day 4 (3-30)'!E3, 'Day 5 (3-31)'!E3, 'Day 6 (4-3)'!E3, 'Day 7 (4-4)'!E3)</f>
+        <v>0.27857142857142697</v>
+      </c>
+      <c r="F4">
+        <f>AVERAGE('Day 1 (3-27)'!F3,  'Day 2 (3-28)'!F3,'Day 3 (3-29)'!F3, 'Day 4 (3-30)'!F3, 'Day 5 (3-31)'!F3, 'Day 6 (4-3)'!F3, 'Day 7 (4-4)'!F3)</f>
+        <v>0.6957142857142864</v>
+      </c>
+      <c r="G4">
+        <f>AVERAGE('Day 1 (3-27)'!G3,  'Day 2 (3-28)'!G3,'Day 3 (3-29)'!G3, 'Day 4 (3-30)'!G3, 'Day 5 (3-31)'!G3, 'Day 6 (4-3)'!G3, 'Day 7 (4-4)'!G3)</f>
+        <v>0.86285714285714177</v>
+      </c>
+      <c r="H4">
+        <f>AVERAGE('Day 1 (3-27)'!H3,  'Day 2 (3-28)'!H3,'Day 3 (3-29)'!H3, 'Day 4 (3-30)'!H3, 'Day 5 (3-31)'!H3, 'Day 6 (4-3)'!H3, 'Day 7 (4-4)'!H3)</f>
+        <v>0.29142857142857231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f>AVERAGE('Day 1 (3-27)'!B4,  'Day 2 (3-28)'!B4,'Day 3 (3-29)'!B4, 'Day 4 (3-30)'!B4, 'Day 5 (3-31)'!B4, 'Day 6 (4-3)'!B4, 'Day 7 (4-4)'!B4)</f>
+        <v>3.1428571428567205E-2</v>
+      </c>
+      <c r="C5">
+        <f>AVERAGE('Day 1 (3-27)'!C4,  'Day 2 (3-28)'!C4,'Day 3 (3-29)'!C4, 'Day 4 (3-30)'!C4, 'Day 5 (3-31)'!C4, 'Day 6 (4-3)'!C4, 'Day 7 (4-4)'!C4)</f>
+        <v>3.5428571428571445</v>
+      </c>
+      <c r="D5">
+        <f>AVERAGE('Day 1 (3-27)'!D4,  'Day 2 (3-28)'!D4,'Day 3 (3-29)'!D4, 'Day 4 (3-30)'!D4, 'Day 5 (3-31)'!D4, 'Day 6 (4-3)'!D4, 'Day 7 (4-4)'!D4)</f>
+        <v>0.18714285714285747</v>
+      </c>
+      <c r="E5">
+        <f>AVERAGE('Day 1 (3-27)'!E4,  'Day 2 (3-28)'!E4,'Day 3 (3-29)'!E4, 'Day 4 (3-30)'!E4, 'Day 5 (3-31)'!E4, 'Day 6 (4-3)'!E4, 'Day 7 (4-4)'!E4)</f>
+        <v>8.8571428571429217E-2</v>
+      </c>
+      <c r="F5">
+        <f>AVERAGE('Day 1 (3-27)'!F4,  'Day 2 (3-28)'!F4,'Day 3 (3-29)'!F4, 'Day 4 (3-30)'!F4, 'Day 5 (3-31)'!F4, 'Day 6 (4-3)'!F4, 'Day 7 (4-4)'!F4)</f>
+        <v>0.97714285714284543</v>
+      </c>
+      <c r="G5">
+        <f>AVERAGE('Day 1 (3-27)'!G4,  'Day 2 (3-28)'!G4,'Day 3 (3-29)'!G4, 'Day 4 (3-30)'!G4, 'Day 5 (3-31)'!G4, 'Day 6 (4-3)'!G4, 'Day 7 (4-4)'!G4)</f>
+        <v>0.93857142857143161</v>
+      </c>
+      <c r="H5">
+        <f>AVERAGE('Day 1 (3-27)'!H4,  'Day 2 (3-28)'!H4,'Day 3 (3-29)'!H4, 'Day 4 (3-30)'!H4, 'Day 5 (3-31)'!H4, 'Day 6 (4-3)'!H4, 'Day 7 (4-4)'!H4)</f>
+        <v>0.41285714285714092</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f>AVERAGE('Day 1 (3-27)'!B5,  'Day 2 (3-28)'!B5,'Day 3 (3-29)'!B5, 'Day 4 (3-30)'!B5, 'Day 5 (3-31)'!B5, 'Day 6 (4-3)'!B5, 'Day 7 (4-4)'!B5)</f>
+        <v>1.6585714285714224</v>
+      </c>
+      <c r="C6">
+        <f>AVERAGE('Day 1 (3-27)'!C5,  'Day 2 (3-28)'!C5,'Day 3 (3-29)'!C5, 'Day 4 (3-30)'!C5, 'Day 5 (3-31)'!C5, 'Day 6 (4-3)'!C5, 'Day 7 (4-4)'!C5)</f>
+        <v>0.66857142857142959</v>
+      </c>
+      <c r="D6">
+        <f>AVERAGE('Day 1 (3-27)'!D5,  'Day 2 (3-28)'!D5,'Day 3 (3-29)'!D5, 'Day 4 (3-30)'!D5, 'Day 5 (3-31)'!D5, 'Day 6 (4-3)'!D5, 'Day 7 (4-4)'!D5)</f>
+        <v>0.55000000000000726</v>
+      </c>
+      <c r="E6">
+        <f>AVERAGE('Day 1 (3-27)'!E5,  'Day 2 (3-28)'!E5,'Day 3 (3-29)'!E5, 'Day 4 (3-30)'!E5, 'Day 5 (3-31)'!E5, 'Day 6 (4-3)'!E5, 'Day 7 (4-4)'!E5)</f>
+        <v>0.47857142857142371</v>
+      </c>
+      <c r="F6">
+        <f>AVERAGE('Day 1 (3-27)'!F5,  'Day 2 (3-28)'!F5,'Day 3 (3-29)'!F5, 'Day 4 (3-30)'!F5, 'Day 5 (3-31)'!F5, 'Day 6 (4-3)'!F5, 'Day 7 (4-4)'!F5)</f>
+        <v>1.6000000000000145</v>
+      </c>
+      <c r="G6">
+        <f>AVERAGE('Day 1 (3-27)'!G5,  'Day 2 (3-28)'!G5,'Day 3 (3-29)'!G5, 'Day 4 (3-30)'!G5, 'Day 5 (3-31)'!G5, 'Day 6 (4-3)'!G5, 'Day 7 (4-4)'!G5)</f>
+        <v>0.991428571428567</v>
+      </c>
+      <c r="H6">
+        <f>AVERAGE('Day 1 (3-27)'!H5,  'Day 2 (3-28)'!H5,'Day 3 (3-29)'!H5, 'Day 4 (3-30)'!H5, 'Day 5 (3-31)'!H5, 'Day 6 (4-3)'!H5, 'Day 7 (4-4)'!H5)</f>
+        <v>0.55999999999999817</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f>AVERAGE('Day 1 (3-27)'!B6,  'Day 2 (3-28)'!B6,'Day 3 (3-29)'!B6, 'Day 4 (3-30)'!B6, 'Day 5 (3-31)'!B6, 'Day 6 (4-3)'!B6, 'Day 7 (4-4)'!B6)</f>
+        <v>7.4285714285711693E-2</v>
+      </c>
+      <c r="C7">
+        <f>AVERAGE('Day 1 (3-27)'!C6,  'Day 2 (3-28)'!C6,'Day 3 (3-29)'!C6, 'Day 4 (3-30)'!C6, 'Day 5 (3-31)'!C6, 'Day 6 (4-3)'!C6, 'Day 7 (4-4)'!C6)</f>
+        <v>0.57857142857143018</v>
+      </c>
+      <c r="D7">
+        <f>AVERAGE('Day 1 (3-27)'!D6,  'Day 2 (3-28)'!D6,'Day 3 (3-29)'!D6, 'Day 4 (3-30)'!D6, 'Day 5 (3-31)'!D6, 'Day 6 (4-3)'!D6, 'Day 7 (4-4)'!D6)</f>
+        <v>0.55857142857142406</v>
+      </c>
+      <c r="E7">
+        <f>AVERAGE('Day 1 (3-27)'!E6,  'Day 2 (3-28)'!E6,'Day 3 (3-29)'!E6, 'Day 4 (3-30)'!E6, 'Day 5 (3-31)'!E6, 'Day 6 (4-3)'!E6, 'Day 7 (4-4)'!E6)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="F7">
+        <f>AVERAGE('Day 1 (3-27)'!F6,  'Day 2 (3-28)'!F6,'Day 3 (3-29)'!F6, 'Day 4 (3-30)'!F6, 'Day 5 (3-31)'!F6, 'Day 6 (4-3)'!F6, 'Day 7 (4-4)'!F6)</f>
+        <v>1.6128571428571377</v>
+      </c>
+      <c r="G7">
+        <f>AVERAGE('Day 1 (3-27)'!G6,  'Day 2 (3-28)'!G6,'Day 3 (3-29)'!G6, 'Day 4 (3-30)'!G6, 'Day 5 (3-31)'!G6, 'Day 6 (4-3)'!G6, 'Day 7 (4-4)'!G6)</f>
+        <v>0.65714285714285636</v>
+      </c>
+      <c r="H7">
+        <f>AVERAGE('Day 1 (3-27)'!H6,  'Day 2 (3-28)'!H6,'Day 3 (3-29)'!H6, 'Day 4 (3-30)'!H6, 'Day 5 (3-31)'!H6, 'Day 6 (4-3)'!H6, 'Day 7 (4-4)'!H6)</f>
+        <v>0.31571428571428684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f>AVERAGE('Day 1 (3-27)'!B7,  'Day 2 (3-28)'!B7,'Day 3 (3-29)'!B7, 'Day 4 (3-30)'!B7, 'Day 5 (3-31)'!B7, 'Day 6 (4-3)'!B7, 'Day 7 (4-4)'!B7)</f>
+        <v>0.11285714285713766</v>
+      </c>
+      <c r="C8">
+        <f>AVERAGE('Day 1 (3-27)'!C7,  'Day 2 (3-28)'!C7,'Day 3 (3-29)'!C7, 'Day 4 (3-30)'!C7, 'Day 5 (3-31)'!C7, 'Day 6 (4-3)'!C7, 'Day 7 (4-4)'!C7)</f>
+        <v>0.60142857142856854</v>
+      </c>
+      <c r="D8">
+        <f>AVERAGE('Day 1 (3-27)'!D7,  'Day 2 (3-28)'!D7,'Day 3 (3-29)'!D7, 'Day 4 (3-30)'!D7, 'Day 5 (3-31)'!D7, 'Day 6 (4-3)'!D7, 'Day 7 (4-4)'!D7)</f>
+        <v>0.8300000000000044</v>
+      </c>
+      <c r="E8">
+        <f>AVERAGE('Day 1 (3-27)'!E7,  'Day 2 (3-28)'!E7,'Day 3 (3-29)'!E7, 'Day 4 (3-30)'!E7, 'Day 5 (3-31)'!E7, 'Day 6 (4-3)'!E7, 'Day 7 (4-4)'!E7)</f>
+        <v>0.40000000000000974</v>
+      </c>
+      <c r="F8">
+        <f>AVERAGE('Day 1 (3-27)'!F7,  'Day 2 (3-28)'!F7,'Day 3 (3-29)'!F7, 'Day 4 (3-30)'!F7, 'Day 5 (3-31)'!F7, 'Day 6 (4-3)'!F7, 'Day 7 (4-4)'!F7)</f>
+        <v>1.3142857142857127</v>
+      </c>
+      <c r="G8">
+        <f>AVERAGE('Day 1 (3-27)'!G7,  'Day 2 (3-28)'!G7,'Day 3 (3-29)'!G7, 'Day 4 (3-30)'!G7, 'Day 5 (3-31)'!G7, 'Day 6 (4-3)'!G7, 'Day 7 (4-4)'!G7)</f>
+        <v>1.8771428571428632</v>
+      </c>
+      <c r="H8">
+        <f>AVERAGE('Day 1 (3-27)'!H7,  'Day 2 (3-28)'!H7,'Day 3 (3-29)'!H7, 'Day 4 (3-30)'!H7, 'Day 5 (3-31)'!H7, 'Day 6 (4-3)'!H7, 'Day 7 (4-4)'!H7)</f>
+        <v>0.2371428571428526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f>AVERAGE('Day 1 (3-27)'!B8,  'Day 2 (3-28)'!B8,'Day 3 (3-29)'!B8, 'Day 4 (3-30)'!B8, 'Day 5 (3-31)'!B8, 'Day 6 (4-3)'!B8, 'Day 7 (4-4)'!B8)</f>
+        <v>0.71714285714285453</v>
+      </c>
+      <c r="C9">
+        <f>AVERAGE('Day 1 (3-27)'!C8,  'Day 2 (3-28)'!C8,'Day 3 (3-29)'!C8, 'Day 4 (3-30)'!C8, 'Day 5 (3-31)'!C8, 'Day 6 (4-3)'!C8, 'Day 7 (4-4)'!C8)</f>
+        <v>1.7200000000000029</v>
+      </c>
+      <c r="D9">
+        <f>AVERAGE('Day 1 (3-27)'!D8,  'Day 2 (3-28)'!D8,'Day 3 (3-29)'!D8, 'Day 4 (3-30)'!D8, 'Day 5 (3-31)'!D8, 'Day 6 (4-3)'!D8, 'Day 7 (4-4)'!D8)</f>
+        <v>0.64000000000001067</v>
+      </c>
+      <c r="E9">
+        <f>AVERAGE('Day 1 (3-27)'!E8,  'Day 2 (3-28)'!E8,'Day 3 (3-29)'!E8, 'Day 4 (3-30)'!E8, 'Day 5 (3-31)'!E8, 'Day 6 (4-3)'!E8, 'Day 7 (4-4)'!E8)</f>
+        <v>0.55714285714286205</v>
+      </c>
+      <c r="F9">
+        <f>AVERAGE('Day 1 (3-27)'!F8,  'Day 2 (3-28)'!F8,'Day 3 (3-29)'!F8, 'Day 4 (3-30)'!F8, 'Day 5 (3-31)'!F8, 'Day 6 (4-3)'!F8, 'Day 7 (4-4)'!F8)</f>
+        <v>2.3899999999999944</v>
+      </c>
+      <c r="G9">
+        <f>AVERAGE('Day 1 (3-27)'!G8,  'Day 2 (3-28)'!G8,'Day 3 (3-29)'!G8, 'Day 4 (3-30)'!G8, 'Day 5 (3-31)'!G8, 'Day 6 (4-3)'!G8, 'Day 7 (4-4)'!G8)</f>
+        <v>0.35857142857143132</v>
+      </c>
+      <c r="H9">
+        <f>AVERAGE('Day 1 (3-27)'!H8,  'Day 2 (3-28)'!H8,'Day 3 (3-29)'!H8, 'Day 4 (3-30)'!H8, 'Day 5 (3-31)'!H8, 'Day 6 (4-3)'!H8, 'Day 7 (4-4)'!H8)</f>
+        <v>0.15142857142856972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f>AVERAGE('Day 1 (3-27)'!B9,  'Day 2 (3-28)'!B9,'Day 3 (3-29)'!B9, 'Day 4 (3-30)'!B9, 'Day 5 (3-31)'!B9, 'Day 6 (4-3)'!B9, 'Day 7 (4-4)'!B9)</f>
+        <v>1.3100000000000063</v>
+      </c>
+      <c r="C10">
+        <f>AVERAGE('Day 1 (3-27)'!C9,  'Day 2 (3-28)'!C9,'Day 3 (3-29)'!C9, 'Day 4 (3-30)'!C9, 'Day 5 (3-31)'!C9, 'Day 6 (4-3)'!C9, 'Day 7 (4-4)'!C9)</f>
+        <v>1.4971428571428598</v>
+      </c>
+      <c r="D10">
+        <f>AVERAGE('Day 1 (3-27)'!D9,  'Day 2 (3-28)'!D9,'Day 3 (3-29)'!D9, 'Day 4 (3-30)'!D9, 'Day 5 (3-31)'!D9, 'Day 6 (4-3)'!D9, 'Day 7 (4-4)'!D9)</f>
+        <v>1.8571428571427923E-2</v>
+      </c>
+      <c r="E10">
+        <f>AVERAGE('Day 1 (3-27)'!E9,  'Day 2 (3-28)'!E9,'Day 3 (3-29)'!E9, 'Day 4 (3-30)'!E9, 'Day 5 (3-31)'!E9, 'Day 6 (4-3)'!E9, 'Day 7 (4-4)'!E9)</f>
+        <v>6.9999999999993179E-2</v>
+      </c>
+      <c r="F10">
+        <f>AVERAGE('Day 1 (3-27)'!F9,  'Day 2 (3-28)'!F9,'Day 3 (3-29)'!F9, 'Day 4 (3-30)'!F9, 'Day 5 (3-31)'!F9, 'Day 6 (4-3)'!F9, 'Day 7 (4-4)'!F9)</f>
+        <v>1.7728571428571382</v>
+      </c>
+      <c r="G10">
+        <f>AVERAGE('Day 1 (3-27)'!G9,  'Day 2 (3-28)'!G9,'Day 3 (3-29)'!G9, 'Day 4 (3-30)'!G9, 'Day 5 (3-31)'!G9, 'Day 6 (4-3)'!G9, 'Day 7 (4-4)'!G9)</f>
+        <v>0.29714285714285488</v>
+      </c>
+      <c r="H10">
+        <f>AVERAGE('Day 1 (3-27)'!H9,  'Day 2 (3-28)'!H9,'Day 3 (3-29)'!H9, 'Day 4 (3-30)'!H9, 'Day 5 (3-31)'!H9, 'Day 6 (4-3)'!H9, 'Day 7 (4-4)'!H9)</f>
+        <v>0.76571428571428157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f>AVERAGE('Day 1 (3-27)'!B10,  'Day 2 (3-28)'!B10,'Day 3 (3-29)'!B10, 'Day 4 (3-30)'!B10, 'Day 5 (3-31)'!B10, 'Day 6 (4-3)'!B10, 'Day 7 (4-4)'!B10)</f>
+        <v>0.85571428571427888</v>
+      </c>
+      <c r="C11">
+        <f>AVERAGE('Day 1 (3-27)'!C10,  'Day 2 (3-28)'!C10,'Day 3 (3-29)'!C10, 'Day 4 (3-30)'!C10, 'Day 5 (3-31)'!C10, 'Day 6 (4-3)'!C10, 'Day 7 (4-4)'!C10)</f>
+        <v>2.5285714285714311</v>
+      </c>
+      <c r="D11">
+        <f>AVERAGE('Day 1 (3-27)'!D10,  'Day 2 (3-28)'!D10,'Day 3 (3-29)'!D10, 'Day 4 (3-30)'!D10, 'Day 5 (3-31)'!D10, 'Day 6 (4-3)'!D10, 'Day 7 (4-4)'!D10)</f>
+        <v>1.2342857142857204</v>
+      </c>
+      <c r="E11">
+        <f>AVERAGE('Day 1 (3-27)'!E10,  'Day 2 (3-28)'!E10,'Day 3 (3-29)'!E10, 'Day 4 (3-30)'!E10, 'Day 5 (3-31)'!E10, 'Day 6 (4-3)'!E10, 'Day 7 (4-4)'!E10)</f>
+        <v>0.67571428571429648</v>
+      </c>
+      <c r="F11">
+        <f>AVERAGE('Day 1 (3-27)'!F10,  'Day 2 (3-28)'!F10,'Day 3 (3-29)'!F10, 'Day 4 (3-30)'!F10, 'Day 5 (3-31)'!F10, 'Day 6 (4-3)'!F10, 'Day 7 (4-4)'!F10)</f>
+        <v>1.7399999999999847</v>
+      </c>
+      <c r="G11">
+        <f>AVERAGE('Day 1 (3-27)'!G10,  'Day 2 (3-28)'!G10,'Day 3 (3-29)'!G10, 'Day 4 (3-30)'!G10, 'Day 5 (3-31)'!G10, 'Day 6 (4-3)'!G10, 'Day 7 (4-4)'!G10)</f>
+        <v>0.75285714285714433</v>
+      </c>
+      <c r="H11">
+        <f>AVERAGE('Day 1 (3-27)'!H10,  'Day 2 (3-28)'!H10,'Day 3 (3-29)'!H10, 'Day 4 (3-30)'!H10, 'Day 5 (3-31)'!H10, 'Day 6 (4-3)'!H10, 'Day 7 (4-4)'!H10)</f>
+        <v>0.28714285714285587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f>AVERAGE('Day 1 (3-27)'!B11,  'Day 2 (3-28)'!B11,'Day 3 (3-29)'!B11, 'Day 4 (3-30)'!B11, 'Day 5 (3-31)'!B11, 'Day 6 (4-3)'!B11, 'Day 7 (4-4)'!B11)</f>
+        <v>0.32285714285714562</v>
+      </c>
+      <c r="C12">
+        <f>AVERAGE('Day 1 (3-27)'!C11,  'Day 2 (3-28)'!C11,'Day 3 (3-29)'!C11, 'Day 4 (3-30)'!C11, 'Day 5 (3-31)'!C11, 'Day 6 (4-3)'!C11, 'Day 7 (4-4)'!C11)</f>
+        <v>2.8142857142857127</v>
+      </c>
+      <c r="D12">
+        <f>AVERAGE('Day 1 (3-27)'!D11,  'Day 2 (3-28)'!D11,'Day 3 (3-29)'!D11, 'Day 4 (3-30)'!D11, 'Day 5 (3-31)'!D11, 'Day 6 (4-3)'!D11, 'Day 7 (4-4)'!D11)</f>
+        <v>0.85857142857143132</v>
+      </c>
+      <c r="E12">
+        <f>AVERAGE('Day 1 (3-27)'!E11,  'Day 2 (3-28)'!E11,'Day 3 (3-29)'!E11, 'Day 4 (3-30)'!E11, 'Day 5 (3-31)'!E11, 'Day 6 (4-3)'!E11, 'Day 7 (4-4)'!E11)</f>
+        <v>1.2085714285714337</v>
+      </c>
+      <c r="F12">
+        <f>AVERAGE('Day 1 (3-27)'!F11,  'Day 2 (3-28)'!F11,'Day 3 (3-29)'!F11, 'Day 4 (3-30)'!F11, 'Day 5 (3-31)'!F11, 'Day 6 (4-3)'!F11, 'Day 7 (4-4)'!F11)</f>
+        <v>3.2057142857142771</v>
+      </c>
+      <c r="G12">
+        <f>AVERAGE('Day 1 (3-27)'!G11,  'Day 2 (3-28)'!G11,'Day 3 (3-29)'!G11, 'Day 4 (3-30)'!G11, 'Day 5 (3-31)'!G11, 'Day 6 (4-3)'!G11, 'Day 7 (4-4)'!G11)</f>
+        <v>0.30714285714285389</v>
+      </c>
+      <c r="H12">
+        <f>AVERAGE('Day 1 (3-27)'!H11,  'Day 2 (3-28)'!H11,'Day 3 (3-29)'!H11, 'Day 4 (3-30)'!H11, 'Day 5 (3-31)'!H11, 'Day 6 (4-3)'!H11, 'Day 7 (4-4)'!H11)</f>
+        <v>0.26428571428571751</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <f>AVERAGE('Day 1 (3-27)'!B12,  'Day 2 (3-28)'!B12,'Day 3 (3-29)'!B12, 'Day 4 (3-30)'!B12, 'Day 5 (3-31)'!B12, 'Day 6 (4-3)'!B12, 'Day 7 (4-4)'!B12)</f>
+        <v>1.9542857142857193</v>
+      </c>
+      <c r="C13">
+        <f>AVERAGE('Day 1 (3-27)'!C12,  'Day 2 (3-28)'!C12,'Day 3 (3-29)'!C12, 'Day 4 (3-30)'!C12, 'Day 5 (3-31)'!C12, 'Day 6 (4-3)'!C12, 'Day 7 (4-4)'!C12)</f>
+        <v>0.95142857142857495</v>
+      </c>
+      <c r="D13">
+        <f>AVERAGE('Day 1 (3-27)'!D12,  'Day 2 (3-28)'!D12,'Day 3 (3-29)'!D12, 'Day 4 (3-30)'!D12, 'Day 5 (3-31)'!D12, 'Day 6 (4-3)'!D12, 'Day 7 (4-4)'!D12)</f>
+        <v>0.33571428571428491</v>
+      </c>
+      <c r="E13">
+        <f>AVERAGE('Day 1 (3-27)'!E12,  'Day 2 (3-28)'!E12,'Day 3 (3-29)'!E12, 'Day 4 (3-30)'!E12, 'Day 5 (3-31)'!E12, 'Day 6 (4-3)'!E12, 'Day 7 (4-4)'!E12)</f>
+        <v>0.154285714285712</v>
+      </c>
+      <c r="F13">
+        <f>AVERAGE('Day 1 (3-27)'!F12,  'Day 2 (3-28)'!F12,'Day 3 (3-29)'!F12, 'Day 4 (3-30)'!F12, 'Day 5 (3-31)'!F12, 'Day 6 (4-3)'!F12, 'Day 7 (4-4)'!F12)</f>
+        <v>4.5999999999999988</v>
+      </c>
+      <c r="G13">
+        <f>AVERAGE('Day 1 (3-27)'!G12,  'Day 2 (3-28)'!G12,'Day 3 (3-29)'!G12, 'Day 4 (3-30)'!G12, 'Day 5 (3-31)'!G12, 'Day 6 (4-3)'!G12, 'Day 7 (4-4)'!G12)</f>
+        <v>4.5714285714284743E-2</v>
+      </c>
+      <c r="H13">
+        <f>AVERAGE('Day 1 (3-27)'!H12,  'Day 2 (3-28)'!H12,'Day 3 (3-29)'!H12, 'Day 4 (3-30)'!H12, 'Day 5 (3-31)'!H12, 'Day 6 (4-3)'!H12, 'Day 7 (4-4)'!H12)</f>
+        <v>0.48142857142856804</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f>AVERAGE('Day 1 (3-27)'!B13,  'Day 2 (3-28)'!B13,'Day 3 (3-29)'!B13, 'Day 4 (3-30)'!B13, 'Day 5 (3-31)'!B13, 'Day 6 (4-3)'!B13, 'Day 7 (4-4)'!B13)</f>
+        <v>2.4285714285716558E-2</v>
+      </c>
+      <c r="C14">
+        <f>AVERAGE('Day 1 (3-27)'!C13,  'Day 2 (3-28)'!C13,'Day 3 (3-29)'!C13, 'Day 4 (3-30)'!C13, 'Day 5 (3-31)'!C13, 'Day 6 (4-3)'!C13, 'Day 7 (4-4)'!C13)</f>
+        <v>1.4157142857142813</v>
+      </c>
+      <c r="D14">
+        <f>AVERAGE('Day 1 (3-27)'!D13,  'Day 2 (3-28)'!D13,'Day 3 (3-29)'!D13, 'Day 4 (3-30)'!D13, 'Day 5 (3-31)'!D13, 'Day 6 (4-3)'!D13, 'Day 7 (4-4)'!D13)</f>
+        <v>1.164285714285711</v>
+      </c>
+      <c r="E14">
+        <f>AVERAGE('Day 1 (3-27)'!E13,  'Day 2 (3-28)'!E13,'Day 3 (3-29)'!E13, 'Day 4 (3-30)'!E13, 'Day 5 (3-31)'!E13, 'Day 6 (4-3)'!E13, 'Day 7 (4-4)'!E13)</f>
+        <v>0.9914285714285711</v>
+      </c>
+      <c r="F14">
+        <f>AVERAGE('Day 1 (3-27)'!F13,  'Day 2 (3-28)'!F13,'Day 3 (3-29)'!F13, 'Day 4 (3-30)'!F13, 'Day 5 (3-31)'!F13, 'Day 6 (4-3)'!F13, 'Day 7 (4-4)'!F13)</f>
+        <v>1.2742857142857085</v>
+      </c>
+      <c r="G14">
+        <f>AVERAGE('Day 1 (3-27)'!G13,  'Day 2 (3-28)'!G13,'Day 3 (3-29)'!G13, 'Day 4 (3-30)'!G13, 'Day 5 (3-31)'!G13, 'Day 6 (4-3)'!G13, 'Day 7 (4-4)'!G13)</f>
+        <v>0.64857142857142747</v>
+      </c>
+      <c r="H14" t="e">
+        <f>AVERAGE('Day 1 (3-27)'!H13,  'Day 2 (3-28)'!H13,'Day 3 (3-29)'!H13, 'Day 4 (3-30)'!H13, 'Day 5 (3-31)'!H13, 'Day 6 (4-3)'!H13, 'Day 7 (4-4)'!H13)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <f>B3*9</f>
+        <v>7.6500000000000945</v>
+      </c>
+      <c r="C18" s="2">
+        <f>C3*8</f>
+        <v>12.365714285714278</v>
+      </c>
+      <c r="D18">
+        <f>D3*7</f>
+        <v>1.2399999999999523</v>
+      </c>
+      <c r="E18">
+        <f>E3*6</f>
+        <v>2.7600000000001206</v>
+      </c>
+      <c r="F18">
+        <f>F3*5</f>
+        <v>7.5999999999999899</v>
+      </c>
+      <c r="G18">
+        <f>G3*4</f>
+        <v>2.0457142857143089</v>
+      </c>
+      <c r="H18">
+        <f>SUM(B18:G18)</f>
+        <v>33.661428571428743</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3">
+        <f t="shared" ref="B19:B29" si="0">B4*9</f>
+        <v>27.604285714285602</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:C29" si="1">C4*8</f>
+        <v>3.1199999999999881</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19:D29" si="2">D4*7</f>
+        <v>0.88999999999995805</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:E29" si="3">E4*6</f>
+        <v>1.6714285714285619</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" ref="F19:F29" si="4">F4*5</f>
+        <v>3.4785714285714322</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ref="G19:G29" si="5">G4*4</f>
+        <v>3.4514285714285671</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:H29" si="6">SUM(B19:G19)</f>
+        <v>40.215714285714107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0.28285714285710484</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="1"/>
+        <v>28.342857142857156</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>1.3100000000000023</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>0.53142857142857536</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>4.8857142857142275</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="5"/>
+        <v>3.7542857142857264</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="6"/>
+        <v>39.10714285714279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3">
+        <f t="shared" si="0"/>
+        <v>14.927142857142801</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>5.3485714285714367</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>3.8500000000000507</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>2.8714285714285421</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000728</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="5"/>
+        <v>3.965714285714268</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="6"/>
+        <v>38.962857142857175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>0.66857142857140528</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>4.6285714285714414</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>3.9099999999999682</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>2.6399999999999864</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="4"/>
+        <v>8.0642857142856883</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>2.6285714285714255</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="6"/>
+        <v>22.539999999999914</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>1.0157142857142389</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>4.8114285714285483</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>5.8100000000000307</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>2.4000000000000585</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="4"/>
+        <v>6.5714285714285641</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="5"/>
+        <v>7.5085714285714529</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="6"/>
+        <v>28.117142857142895</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>6.4542857142856906</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="1"/>
+        <v>13.760000000000023</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>4.480000000000075</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>3.3428571428571723</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>11.949999999999971</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="5"/>
+        <v>1.4342857142857253</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="6"/>
+        <v>41.421428571428663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>11.790000000000056</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="1"/>
+        <v>11.977142857142878</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>0.12999999999999545</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>0.41999999999995907</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>8.8642857142856908</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="5"/>
+        <v>1.1885714285714195</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="6"/>
+        <v>34.370000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>7.7014285714285098</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="1"/>
+        <v>20.228571428571449</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>8.6400000000000432</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>4.0542857142857791</v>
+      </c>
+      <c r="F26">
+        <f>F11*5</f>
+        <v>8.6999999999999229</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="5"/>
+        <v>3.0114285714285773</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="6"/>
+        <v>52.335714285714275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>2.9057142857143106</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="1"/>
+        <v>22.514285714285702</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>6.0100000000000193</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>7.2514285714286029</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>16.028571428571386</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="5"/>
+        <v>1.2285714285714155</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="6"/>
+        <v>55.938571428571436</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>17.588571428571473</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>7.6114285714285996</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>2.3499999999999943</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>0.92571428571427194</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="4"/>
+        <v>22.999999999999993</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="5"/>
+        <v>0.18285714285713897</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="6"/>
+        <v>51.65857142857147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>0.21857142857144901</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="1"/>
+        <v>11.32571428571425</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>8.1499999999999773</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>5.9485714285714266</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>6.3714285714285426</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>2.5942857142857099</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="6"/>
+        <v>34.608571428571359</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A16:H16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3714CCC-4274-CC42-9577-F81770801897}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7.6500000000000945</v>
+      </c>
+      <c r="C2">
+        <v>12.365714285714278</v>
+      </c>
+      <c r="D2">
+        <v>1.2399999999999523</v>
+      </c>
+      <c r="E2">
+        <v>2.7600000000001206</v>
+      </c>
+      <c r="F2">
+        <v>7.5999999999999899</v>
+      </c>
+      <c r="G2">
+        <v>2.0457142857143089</v>
+      </c>
+      <c r="H2">
+        <v>33.661428571428743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>27.604285714285602</v>
+      </c>
+      <c r="C3">
+        <v>3.1199999999999881</v>
+      </c>
+      <c r="D3">
+        <v>0.88999999999995805</v>
+      </c>
+      <c r="E3">
+        <v>1.6714285714285619</v>
+      </c>
+      <c r="F3">
+        <v>3.4785714285714322</v>
+      </c>
+      <c r="G3">
+        <v>3.4514285714285671</v>
+      </c>
+      <c r="H3">
+        <v>40.215714285714107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.28285714285710484</v>
+      </c>
+      <c r="C4">
+        <v>28.342857142857156</v>
+      </c>
+      <c r="D4">
+        <v>1.3100000000000023</v>
+      </c>
+      <c r="E4">
+        <v>0.53142857142857536</v>
+      </c>
+      <c r="F4">
+        <v>4.8857142857142275</v>
+      </c>
+      <c r="G4">
+        <v>3.7542857142857264</v>
+      </c>
+      <c r="H4">
+        <v>39.10714285714279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>14.927142857142801</v>
+      </c>
+      <c r="C5">
+        <v>5.3485714285714367</v>
+      </c>
+      <c r="D5">
+        <v>3.8500000000000507</v>
+      </c>
+      <c r="E5">
+        <v>2.8714285714285421</v>
+      </c>
+      <c r="F5">
+        <v>8.0000000000000728</v>
+      </c>
+      <c r="G5">
+        <v>3.965714285714268</v>
+      </c>
+      <c r="H5">
+        <v>38.962857142857175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.66857142857140528</v>
+      </c>
+      <c r="C6">
+        <v>4.6285714285714414</v>
+      </c>
+      <c r="D6">
+        <v>3.9099999999999682</v>
+      </c>
+      <c r="E6">
+        <v>2.6399999999999864</v>
+      </c>
+      <c r="F6">
+        <v>8.0642857142856883</v>
+      </c>
+      <c r="G6">
+        <v>2.6285714285714255</v>
+      </c>
+      <c r="H6">
+        <v>22.539999999999914</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1.0157142857142389</v>
+      </c>
+      <c r="C7">
+        <v>4.8114285714285483</v>
+      </c>
+      <c r="D7">
+        <v>5.8100000000000307</v>
+      </c>
+      <c r="E7">
+        <v>2.4000000000000585</v>
+      </c>
+      <c r="F7">
+        <v>6.5714285714285641</v>
+      </c>
+      <c r="G7">
+        <v>7.5085714285714529</v>
+      </c>
+      <c r="H7">
+        <v>28.117142857142895</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6.4542857142856906</v>
+      </c>
+      <c r="C8">
+        <v>13.760000000000023</v>
+      </c>
+      <c r="D8">
+        <v>4.480000000000075</v>
+      </c>
+      <c r="E8">
+        <v>3.3428571428571723</v>
+      </c>
+      <c r="F8">
+        <v>11.949999999999971</v>
+      </c>
+      <c r="G8">
+        <v>1.4342857142857253</v>
+      </c>
+      <c r="H8">
+        <v>41.421428571428663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>11.790000000000056</v>
+      </c>
+      <c r="C9">
+        <v>11.977142857142878</v>
+      </c>
+      <c r="D9">
+        <v>0.12999999999999545</v>
+      </c>
+      <c r="E9">
+        <v>0.41999999999995907</v>
+      </c>
+      <c r="F9">
+        <v>8.8642857142856908</v>
+      </c>
+      <c r="G9">
+        <v>1.1885714285714195</v>
+      </c>
+      <c r="H9">
+        <v>34.370000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7.7014285714285098</v>
+      </c>
+      <c r="C10">
+        <v>20.228571428571449</v>
+      </c>
+      <c r="D10">
+        <v>8.6400000000000432</v>
+      </c>
+      <c r="E10">
+        <v>4.0542857142857791</v>
+      </c>
+      <c r="F10">
+        <v>8.6999999999999229</v>
+      </c>
+      <c r="G10">
+        <v>3.0114285714285773</v>
+      </c>
+      <c r="H10">
+        <v>52.335714285714275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2.9057142857143106</v>
+      </c>
+      <c r="C11">
+        <v>22.514285714285702</v>
+      </c>
+      <c r="D11">
+        <v>6.0100000000000193</v>
+      </c>
+      <c r="E11">
+        <v>7.2514285714286029</v>
+      </c>
+      <c r="F11">
+        <v>16.028571428571386</v>
+      </c>
+      <c r="G11">
+        <v>1.2285714285714155</v>
+      </c>
+      <c r="H11">
+        <v>55.938571428571436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>17.588571428571473</v>
+      </c>
+      <c r="C12">
+        <v>7.6114285714285996</v>
+      </c>
+      <c r="D12">
+        <v>2.3499999999999943</v>
+      </c>
+      <c r="E12">
+        <v>0.92571428571427194</v>
+      </c>
+      <c r="F12">
+        <v>22.999999999999993</v>
+      </c>
+      <c r="G12">
+        <v>0.18285714285713897</v>
+      </c>
+      <c r="H12">
+        <v>51.65857142857147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.21857142857144901</v>
+      </c>
+      <c r="C13">
+        <v>11.32571428571425</v>
+      </c>
+      <c r="D13">
+        <v>8.1499999999999773</v>
+      </c>
+      <c r="E13">
+        <v>5.9485714285714266</v>
+      </c>
+      <c r="F13">
+        <v>6.3714285714285426</v>
+      </c>
+      <c r="G13">
+        <v>2.5942857142857099</v>
+      </c>
+      <c r="H13">
+        <v>34.608571428571359</v>
       </c>
     </row>
   </sheetData>

--- a/docs/p03/IC Diet Choice.xlsx
+++ b/docs/p03/IC Diet Choice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawilson1999/Desktop/Data Science Spring 2023/Portfolio/p03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9A502B-00C2-664D-AA85-8294576DE50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623AB74C-A450-D24F-A6A1-6D841FB4E1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" activeTab="9" xr2:uid="{CAAA04D1-08D5-5C45-8FA3-FCC17EC5C807}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" firstSheet="3" activeTab="16" xr2:uid="{CAAA04D1-08D5-5C45-8FA3-FCC17EC5C807}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 1 (3-27)" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="d5 mod" sheetId="15" r:id="rId14"/>
     <sheet name="d6 mod" sheetId="16" r:id="rId15"/>
     <sheet name="d7 mod" sheetId="17" r:id="rId16"/>
+    <sheet name="avg_kcal_mod" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="18">
   <si>
     <t>Water</t>
   </si>
@@ -838,7 +839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59AFE6F-9B2B-FF4E-8F40-AC7EAE150E3A}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -3148,7 +3149,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3522,6 +3523,392 @@
       <c r="H14" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDA85A8-12D5-B946-94EF-76109EDCA99A}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7.6500000000000945</v>
+      </c>
+      <c r="C2">
+        <v>12.365714285714278</v>
+      </c>
+      <c r="D2">
+        <v>1.2399999999999523</v>
+      </c>
+      <c r="E2">
+        <v>2.7600000000001206</v>
+      </c>
+      <c r="F2">
+        <v>7.5999999999999899</v>
+      </c>
+      <c r="G2">
+        <v>2.0457142857143089</v>
+      </c>
+      <c r="H2">
+        <v>33.661428571428743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>27.604285714285602</v>
+      </c>
+      <c r="C3">
+        <v>3.1199999999999881</v>
+      </c>
+      <c r="D3">
+        <v>0.88999999999995805</v>
+      </c>
+      <c r="E3">
+        <v>1.6714285714285619</v>
+      </c>
+      <c r="F3">
+        <v>3.4785714285714322</v>
+      </c>
+      <c r="G3">
+        <v>3.4514285714285671</v>
+      </c>
+      <c r="H3">
+        <v>40.215714285714107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.28285714285710484</v>
+      </c>
+      <c r="C4">
+        <v>28.342857142857156</v>
+      </c>
+      <c r="D4">
+        <v>1.3100000000000023</v>
+      </c>
+      <c r="E4">
+        <v>0.53142857142857536</v>
+      </c>
+      <c r="F4">
+        <v>4.8857142857142275</v>
+      </c>
+      <c r="G4">
+        <v>3.7542857142857264</v>
+      </c>
+      <c r="H4">
+        <v>39.10714285714279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>14.927142857142801</v>
+      </c>
+      <c r="C5">
+        <v>5.3485714285714367</v>
+      </c>
+      <c r="D5">
+        <v>3.8500000000000507</v>
+      </c>
+      <c r="E5">
+        <v>2.8714285714285421</v>
+      </c>
+      <c r="F5">
+        <v>8.0000000000000728</v>
+      </c>
+      <c r="G5">
+        <v>3.965714285714268</v>
+      </c>
+      <c r="H5">
+        <v>38.962857142857175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.66857142857140528</v>
+      </c>
+      <c r="C6">
+        <v>4.6285714285714414</v>
+      </c>
+      <c r="D6">
+        <v>3.9099999999999682</v>
+      </c>
+      <c r="E6">
+        <v>2.6399999999999864</v>
+      </c>
+      <c r="F6">
+        <v>8.0642857142856883</v>
+      </c>
+      <c r="G6">
+        <v>2.6285714285714255</v>
+      </c>
+      <c r="H6">
+        <v>22.539999999999914</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1.0157142857142389</v>
+      </c>
+      <c r="C7">
+        <v>4.8114285714285483</v>
+      </c>
+      <c r="D7">
+        <v>5.8100000000000307</v>
+      </c>
+      <c r="E7">
+        <v>2.4000000000000585</v>
+      </c>
+      <c r="F7">
+        <v>6.5714285714285641</v>
+      </c>
+      <c r="G7">
+        <v>7.5085714285714529</v>
+      </c>
+      <c r="H7">
+        <v>28.117142857142895</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6.4542857142856906</v>
+      </c>
+      <c r="C8">
+        <v>13.760000000000023</v>
+      </c>
+      <c r="D8">
+        <v>4.480000000000075</v>
+      </c>
+      <c r="E8">
+        <v>3.3428571428571723</v>
+      </c>
+      <c r="F8">
+        <v>11.949999999999971</v>
+      </c>
+      <c r="G8">
+        <v>1.4342857142857253</v>
+      </c>
+      <c r="H8">
+        <v>41.421428571428663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>11.790000000000056</v>
+      </c>
+      <c r="C9">
+        <v>11.977142857142878</v>
+      </c>
+      <c r="D9">
+        <v>0.12999999999999545</v>
+      </c>
+      <c r="E9">
+        <v>0.41999999999995907</v>
+      </c>
+      <c r="F9">
+        <v>8.8642857142856908</v>
+      </c>
+      <c r="G9">
+        <v>1.1885714285714195</v>
+      </c>
+      <c r="H9">
+        <v>34.370000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7.7014285714285098</v>
+      </c>
+      <c r="C10">
+        <v>20.228571428571449</v>
+      </c>
+      <c r="D10">
+        <v>8.6400000000000432</v>
+      </c>
+      <c r="E10">
+        <v>4.0542857142857791</v>
+      </c>
+      <c r="F10">
+        <v>8.6999999999999229</v>
+      </c>
+      <c r="G10">
+        <v>3.0114285714285773</v>
+      </c>
+      <c r="H10">
+        <v>52.335714285714275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2.9057142857143106</v>
+      </c>
+      <c r="C11">
+        <v>22.514285714285702</v>
+      </c>
+      <c r="D11">
+        <v>6.0100000000000193</v>
+      </c>
+      <c r="E11">
+        <v>7.2514285714286029</v>
+      </c>
+      <c r="F11">
+        <v>16.028571428571386</v>
+      </c>
+      <c r="G11">
+        <v>1.2285714285714155</v>
+      </c>
+      <c r="H11">
+        <v>55.938571428571436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>17.588571428571473</v>
+      </c>
+      <c r="C12">
+        <v>7.6114285714285996</v>
+      </c>
+      <c r="D12">
+        <v>2.3499999999999943</v>
+      </c>
+      <c r="E12">
+        <v>0.92571428571427194</v>
+      </c>
+      <c r="F12">
+        <v>22.999999999999993</v>
+      </c>
+      <c r="G12">
+        <v>0.18285714285713897</v>
+      </c>
+      <c r="H12">
+        <v>51.65857142857147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.21857142857144901</v>
+      </c>
+      <c r="C13">
+        <v>11.32571428571425</v>
+      </c>
+      <c r="D13">
+        <v>8.1499999999999773</v>
+      </c>
+      <c r="E13">
+        <v>5.9485714285714266</v>
+      </c>
+      <c r="F13">
+        <v>6.3714285714285426</v>
+      </c>
+      <c r="G13">
+        <v>2.5942857142857099</v>
+      </c>
+      <c r="H13">
+        <v>34.608571428571359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <f>AVERAGE(B2:B13)</f>
+        <v>8.2339285714285619</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:H14" si="0">AVERAGE(C2:C13)</f>
+        <v>12.169523809523811</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>3.8975000000000057</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>2.9014285714285877</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>9.4595238095237892</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>2.7495238095238115</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>39.411428571428566</v>
       </c>
     </row>
   </sheetData>
@@ -5651,7 +6038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FA45DA-71A3-4B48-B3F7-6F86CE2430EE}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="166" workbookViewId="0">
+    <sheetView zoomScale="166" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -6539,7 +6926,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection sqref="A1:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
